--- a/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -679,7 +679,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +809,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="4">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4">
         <v>30</v>
@@ -833,7 +833,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" s="4">
         <v>10</v>
@@ -845,7 +845,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" s="4">
         <v>10</v>
@@ -857,7 +857,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" s="4">
         <v>10</v>
@@ -972,7 +972,9 @@
       <c r="B26" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="6">
+        <v>10</v>
+      </c>
       <c r="D26" s="6">
         <v>20</v>
       </c>
@@ -1040,7 +1042,7 @@
       </c>
       <c r="C32" s="10">
         <f>SUM(C6:C31)</f>
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="D32" s="10">
         <v>330</v>

--- a/JS-Frameworks-Self-Evaluation-Protocol.xlsx
+++ b/JS-Frameworks-Self-Evaluation-Protocol.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Days Commit in GitHub</t>
   </si>
@@ -679,7 +679,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,20 +765,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="5">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>16</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D8" s="11"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="5">
-        <v>40</v>
-      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="11" t="s">
         <v>16</v>
       </c>
@@ -961,7 +957,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D25" s="6">
         <v>20</v>
@@ -1042,7 +1038,7 @@
       </c>
       <c r="C32" s="10">
         <f>SUM(C6:C31)</f>
-        <v>242</v>
+        <v>297</v>
       </c>
       <c r="D32" s="10">
         <v>330</v>
